--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cdh1-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cdh1-Igf1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cdh1</t>
+  </si>
+  <si>
+    <t>Igf1r</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cdh1</t>
-  </si>
-  <si>
-    <t>Igf1r</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.016000333333333</v>
+        <v>0.05946133333333333</v>
       </c>
       <c r="H2">
-        <v>3.048001</v>
+        <v>0.178384</v>
       </c>
       <c r="I2">
-        <v>0.7163354752101707</v>
+        <v>0.1600936236816221</v>
       </c>
       <c r="J2">
-        <v>0.7163354752101708</v>
+        <v>0.1600936236816221</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.18520366666667</v>
+        <v>12.23245266666667</v>
       </c>
       <c r="N2">
-        <v>69.555611</v>
+        <v>36.697358</v>
       </c>
       <c r="O2">
-        <v>0.4216200689608106</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="P2">
-        <v>0.4216200689608105</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="Q2">
-        <v>23.55617465373455</v>
+        <v>0.7273579454968889</v>
       </c>
       <c r="R2">
-        <v>212.005571883611</v>
+        <v>6.546221509472</v>
       </c>
       <c r="S2">
-        <v>0.3020214124571872</v>
+        <v>0.04170720968866032</v>
       </c>
       <c r="T2">
-        <v>0.3020214124571872</v>
+        <v>0.04170720968866032</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.016000333333333</v>
+        <v>0.05946133333333333</v>
       </c>
       <c r="H3">
-        <v>3.048001</v>
+        <v>0.178384</v>
       </c>
       <c r="I3">
-        <v>0.7163354752101707</v>
+        <v>0.1600936236816221</v>
       </c>
       <c r="J3">
-        <v>0.7163354752101708</v>
+        <v>0.1600936236816221</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>34.696291</v>
       </c>
       <c r="O3">
-        <v>0.210315924104302</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="P3">
-        <v>0.2103159241043019</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="Q3">
-        <v>11.75048107381011</v>
+        <v>0.6876959081937778</v>
       </c>
       <c r="R3">
-        <v>105.754329664291</v>
+        <v>6.189263173744</v>
       </c>
       <c r="S3">
-        <v>0.1506567574375214</v>
+        <v>0.03943296092748088</v>
       </c>
       <c r="T3">
-        <v>0.1506567574375214</v>
+        <v>0.03943296092748089</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.016000333333333</v>
+        <v>0.05946133333333333</v>
       </c>
       <c r="H4">
-        <v>3.048001</v>
+        <v>0.178384</v>
       </c>
       <c r="I4">
-        <v>0.7163354752101707</v>
+        <v>0.1600936236816221</v>
       </c>
       <c r="J4">
-        <v>0.7163354752101708</v>
+        <v>0.1600936236816221</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.14382633333333</v>
+        <v>20.18080466666667</v>
       </c>
       <c r="N4">
-        <v>54.431479</v>
+        <v>60.54241400000001</v>
       </c>
       <c r="O4">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="P4">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="Q4">
-        <v>18.43413360260877</v>
+        <v>1.199977553219556</v>
       </c>
       <c r="R4">
-        <v>165.907202423479</v>
+        <v>10.799797978976</v>
       </c>
       <c r="S4">
-        <v>0.2363500504612593</v>
+        <v>0.06880754619326232</v>
       </c>
       <c r="T4">
-        <v>0.2363500504612593</v>
+        <v>0.06880754619326232</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.016000333333333</v>
+        <v>0.05946133333333333</v>
       </c>
       <c r="H5">
-        <v>3.048001</v>
+        <v>0.178384</v>
       </c>
       <c r="I5">
-        <v>0.7163354752101707</v>
+        <v>0.1600936236816221</v>
       </c>
       <c r="J5">
-        <v>0.7163354752101708</v>
+        <v>0.1600936236816221</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.096289333333333</v>
+        <v>2.975728333333333</v>
       </c>
       <c r="N5">
-        <v>6.288868</v>
+        <v>8.927185</v>
       </c>
       <c r="O5">
-        <v>0.03812076296541245</v>
+        <v>0.06337483429318623</v>
       </c>
       <c r="P5">
-        <v>0.03812076296541244</v>
+        <v>0.06337483429318624</v>
       </c>
       <c r="Q5">
-        <v>2.129830661429778</v>
+        <v>0.1769407743377777</v>
       </c>
       <c r="R5">
-        <v>19.168475952868</v>
+        <v>1.59246696904</v>
       </c>
       <c r="S5">
-        <v>0.02730725485420301</v>
+        <v>0.01014590687221851</v>
       </c>
       <c r="T5">
-        <v>0.027307254854203</v>
+        <v>0.01014590687221851</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.05946133333333333</v>
+        <v>0.2230636666666667</v>
       </c>
       <c r="H6">
-        <v>0.178384</v>
+        <v>0.669191</v>
       </c>
       <c r="I6">
-        <v>0.04192347292861489</v>
+        <v>0.6005763528406602</v>
       </c>
       <c r="J6">
-        <v>0.04192347292861489</v>
+        <v>0.6005763528406602</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.18520366666667</v>
+        <v>12.23245266666667</v>
       </c>
       <c r="N6">
-        <v>69.555611</v>
+        <v>36.697358</v>
       </c>
       <c r="O6">
-        <v>0.4216200689608106</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="P6">
-        <v>0.4216200689608105</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="Q6">
-        <v>1.378623123624889</v>
+        <v>2.728615744153111</v>
       </c>
       <c r="R6">
-        <v>12.407608112624</v>
+        <v>24.557541697378</v>
       </c>
       <c r="S6">
-        <v>0.01767577754723929</v>
+        <v>0.1564607215824529</v>
       </c>
       <c r="T6">
-        <v>0.01767577754723928</v>
+        <v>0.1564607215824529</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.05946133333333333</v>
+        <v>0.2230636666666667</v>
       </c>
       <c r="H7">
-        <v>0.178384</v>
+        <v>0.669191</v>
       </c>
       <c r="I7">
-        <v>0.04192347292861489</v>
+        <v>0.6005763528406602</v>
       </c>
       <c r="J7">
-        <v>0.04192347292861489</v>
+        <v>0.6005763528406602</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>34.696291</v>
       </c>
       <c r="O7">
-        <v>0.210315924104302</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="P7">
-        <v>0.2103159241043019</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="Q7">
-        <v>0.6876959081937778</v>
+        <v>2.579827296731222</v>
       </c>
       <c r="R7">
-        <v>6.189263173744</v>
+        <v>23.218445670581</v>
       </c>
       <c r="S7">
-        <v>0.008817173950643327</v>
+        <v>0.1479290886852064</v>
       </c>
       <c r="T7">
-        <v>0.008817173950643326</v>
+        <v>0.1479290886852064</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.05946133333333333</v>
+        <v>0.2230636666666667</v>
       </c>
       <c r="H8">
-        <v>0.178384</v>
+        <v>0.669191</v>
       </c>
       <c r="I8">
-        <v>0.04192347292861489</v>
+        <v>0.6005763528406602</v>
       </c>
       <c r="J8">
-        <v>0.04192347292861489</v>
+        <v>0.6005763528406602</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.14382633333333</v>
+        <v>20.18080466666667</v>
       </c>
       <c r="N8">
-        <v>54.431479</v>
+        <v>60.54241400000001</v>
       </c>
       <c r="O8">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="P8">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="Q8">
-        <v>1.078856105548444</v>
+        <v>4.501604285230445</v>
       </c>
       <c r="R8">
-        <v>9.709704949936</v>
+        <v>40.514438567074</v>
       </c>
       <c r="S8">
-        <v>0.01383236665653367</v>
+        <v>0.2581251157313179</v>
       </c>
       <c r="T8">
-        <v>0.01383236665653367</v>
+        <v>0.2581251157313179</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.05946133333333333</v>
+        <v>0.2230636666666667</v>
       </c>
       <c r="H9">
-        <v>0.178384</v>
+        <v>0.669191</v>
       </c>
       <c r="I9">
-        <v>0.04192347292861489</v>
+        <v>0.6005763528406602</v>
       </c>
       <c r="J9">
-        <v>0.04192347292861489</v>
+        <v>0.6005763528406602</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.096289333333333</v>
+        <v>2.975728333333333</v>
       </c>
       <c r="N9">
-        <v>6.288868</v>
+        <v>8.927185</v>
       </c>
       <c r="O9">
-        <v>0.03812076296541245</v>
+        <v>0.06337483429318623</v>
       </c>
       <c r="P9">
-        <v>0.03812076296541244</v>
+        <v>0.06337483429318624</v>
       </c>
       <c r="Q9">
-        <v>0.1246481588124445</v>
+        <v>0.6637768730372221</v>
       </c>
       <c r="R9">
-        <v>1.121833429312</v>
+        <v>5.973991857334999</v>
       </c>
       <c r="S9">
-        <v>0.001598154774198614</v>
+        <v>0.03806142684168299</v>
       </c>
       <c r="T9">
-        <v>0.001598154774198613</v>
+        <v>0.038061426841683</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,13 +1018,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1033,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1175543333333333</v>
+        <v>0.088891</v>
       </c>
       <c r="H10">
-        <v>0.352663</v>
+        <v>0.266673</v>
       </c>
       <c r="I10">
-        <v>0.08288219646058007</v>
+        <v>0.2393300234777177</v>
       </c>
       <c r="J10">
-        <v>0.08288219646058007</v>
+        <v>0.2393300234777177</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.18520366666667</v>
+        <v>12.23245266666667</v>
       </c>
       <c r="N10">
-        <v>69.555611</v>
+        <v>36.697358</v>
       </c>
       <c r="O10">
-        <v>0.4216200689608106</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="P10">
-        <v>0.4216200689608105</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="Q10">
-        <v>2.725521160232555</v>
+        <v>1.087354949992667</v>
       </c>
       <c r="R10">
-        <v>24.529690442093</v>
+        <v>9.786194549934001</v>
       </c>
       <c r="S10">
-        <v>0.03494479738733321</v>
+        <v>0.06234968791654023</v>
       </c>
       <c r="T10">
-        <v>0.03494479738733321</v>
+        <v>0.06234968791654023</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,13 +1080,13 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.1175543333333333</v>
+        <v>0.088891</v>
       </c>
       <c r="H11">
-        <v>0.352663</v>
+        <v>0.266673</v>
       </c>
       <c r="I11">
-        <v>0.08288219646058007</v>
+        <v>0.2393300234777177</v>
       </c>
       <c r="J11">
-        <v>0.08288219646058007</v>
+        <v>0.2393300234777177</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>34.696291</v>
       </c>
       <c r="O11">
-        <v>0.210315924104302</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="P11">
-        <v>0.2103159241043019</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="Q11">
-        <v>1.359566452548111</v>
+        <v>1.028062667760333</v>
       </c>
       <c r="R11">
-        <v>12.236098072933</v>
+        <v>9.252564009843001</v>
       </c>
       <c r="S11">
-        <v>0.0174314457404012</v>
+        <v>0.0589498272794315</v>
       </c>
       <c r="T11">
-        <v>0.0174314457404012</v>
+        <v>0.05894982727943151</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,13 +1142,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1157,16 +1157,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1175543333333333</v>
+        <v>0.088891</v>
       </c>
       <c r="H12">
-        <v>0.352663</v>
+        <v>0.266673</v>
       </c>
       <c r="I12">
-        <v>0.08288219646058007</v>
+        <v>0.2393300234777177</v>
       </c>
       <c r="J12">
-        <v>0.08288219646058007</v>
+        <v>0.2393300234777177</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.14382633333333</v>
+        <v>20.18080466666667</v>
       </c>
       <c r="N12">
-        <v>54.431479</v>
+        <v>60.54241400000001</v>
       </c>
       <c r="O12">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="P12">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="Q12">
-        <v>2.132885408730778</v>
+        <v>1.793891907624667</v>
       </c>
       <c r="R12">
-        <v>19.195968678577</v>
+        <v>16.145027168622</v>
       </c>
       <c r="S12">
-        <v>0.02734642076751914</v>
+        <v>0.1028630077024612</v>
       </c>
       <c r="T12">
-        <v>0.02734642076751914</v>
+        <v>0.1028630077024612</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,13 +1204,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1219,16 +1219,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1175543333333333</v>
+        <v>0.088891</v>
       </c>
       <c r="H13">
-        <v>0.352663</v>
+        <v>0.266673</v>
       </c>
       <c r="I13">
-        <v>0.08288219646058007</v>
+        <v>0.2393300234777177</v>
       </c>
       <c r="J13">
-        <v>0.08288219646058007</v>
+        <v>0.2393300234777177</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.096289333333333</v>
+        <v>2.975728333333333</v>
       </c>
       <c r="N13">
-        <v>6.288868</v>
+        <v>8.927185</v>
       </c>
       <c r="O13">
-        <v>0.03812076296541245</v>
+        <v>0.06337483429318623</v>
       </c>
       <c r="P13">
-        <v>0.03812076296541244</v>
+        <v>0.06337483429318624</v>
       </c>
       <c r="Q13">
-        <v>0.2464278950537778</v>
+        <v>0.2645154672783333</v>
       </c>
       <c r="R13">
-        <v>2.217851055484</v>
+        <v>2.380639205505</v>
       </c>
       <c r="S13">
-        <v>0.00315953256532652</v>
+        <v>0.01516750057928473</v>
       </c>
       <c r="T13">
-        <v>0.003159532565326519</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.2253143333333333</v>
-      </c>
-      <c r="H14">
-        <v>0.675943</v>
-      </c>
-      <c r="I14">
-        <v>0.1588588554006342</v>
-      </c>
-      <c r="J14">
-        <v>0.1588588554006342</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>23.18520366666667</v>
-      </c>
-      <c r="N14">
-        <v>69.555611</v>
-      </c>
-      <c r="O14">
-        <v>0.4216200689608106</v>
-      </c>
-      <c r="P14">
-        <v>0.4216200689608105</v>
-      </c>
-      <c r="Q14">
-        <v>5.223958707352555</v>
-      </c>
-      <c r="R14">
-        <v>47.015628366173</v>
-      </c>
-      <c r="S14">
-        <v>0.06697808156905083</v>
-      </c>
-      <c r="T14">
-        <v>0.06697808156905083</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.2253143333333333</v>
-      </c>
-      <c r="H15">
-        <v>0.675943</v>
-      </c>
-      <c r="I15">
-        <v>0.1588588554006342</v>
-      </c>
-      <c r="J15">
-        <v>0.1588588554006342</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>11.56543033333333</v>
-      </c>
-      <c r="N15">
-        <v>34.696291</v>
-      </c>
-      <c r="O15">
-        <v>0.210315924104302</v>
-      </c>
-      <c r="P15">
-        <v>0.2103159241043019</v>
-      </c>
-      <c r="Q15">
-        <v>2.605857225268111</v>
-      </c>
-      <c r="R15">
-        <v>23.452715027413</v>
-      </c>
-      <c r="S15">
-        <v>0.03341054697573607</v>
-      </c>
-      <c r="T15">
-        <v>0.03341054697573607</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.2253143333333333</v>
-      </c>
-      <c r="H16">
-        <v>0.675943</v>
-      </c>
-      <c r="I16">
-        <v>0.1588588554006342</v>
-      </c>
-      <c r="J16">
-        <v>0.1588588554006342</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>18.14382633333333</v>
-      </c>
-      <c r="N16">
-        <v>54.431479</v>
-      </c>
-      <c r="O16">
-        <v>0.3299432439694752</v>
-      </c>
-      <c r="P16">
-        <v>0.3299432439694752</v>
-      </c>
-      <c r="Q16">
-        <v>4.088064134410778</v>
-      </c>
-      <c r="R16">
-        <v>36.792577209697</v>
-      </c>
-      <c r="S16">
-        <v>0.05241440608416303</v>
-      </c>
-      <c r="T16">
-        <v>0.05241440608416304</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.2253143333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.675943</v>
-      </c>
-      <c r="I17">
-        <v>0.1588588554006342</v>
-      </c>
-      <c r="J17">
-        <v>0.1588588554006342</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>2.096289333333333</v>
-      </c>
-      <c r="N17">
-        <v>6.288868</v>
-      </c>
-      <c r="O17">
-        <v>0.03812076296541245</v>
-      </c>
-      <c r="P17">
-        <v>0.03812076296541244</v>
-      </c>
-      <c r="Q17">
-        <v>0.4723240336137778</v>
-      </c>
-      <c r="R17">
-        <v>4.250916302524</v>
-      </c>
-      <c r="S17">
-        <v>0.006055820771684309</v>
-      </c>
-      <c r="T17">
-        <v>0.006055820771684308</v>
+        <v>0.01516750057928474</v>
       </c>
     </row>
   </sheetData>
